--- a/biology/Zoologie/Chèvres_naines_d'Afrique_de_l'Ouest/Chèvres_naines_d'Afrique_de_l'Ouest.xlsx
+++ b/biology/Zoologie/Chèvres_naines_d'Afrique_de_l'Ouest/Chèvres_naines_d'Afrique_de_l'Ouest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vres_naines_d%27Afrique_de_l%27Ouest</t>
+          <t>Chèvres_naines_d'Afrique_de_l'Ouest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La chèvre naine d’Afrique de l’Ouest (West African Dwarf) est une race assez hétérogène ou un groupe de races de chèvre domestique provenant de la côte ouest et du centre de l’Afrique, dans un périmètre s’étendant approximativement du Sénégal au Congo. Elle est caractérisée par une achondroplasie ou nanisme, une caractéristique qui peut être une réponse aux conditions environnementales des humides forêts de la région, et aussi par un certain degré de résistance à la trypanosomiase transmise par les glossines ou « la maladie du sommeil ». 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vres_naines_d%27Afrique_de_l%27Ouest</t>
+          <t>Chèvres_naines_d'Afrique_de_l'Ouest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La naine d’Afrique de l’Ouest est une race traditionnelle de l’Ouest ou du centre de l’Afrique. Ses caractéristiques de nanisme peuvent avoir évolué en réponse aux conditions climatiques des forêts humides de la région. 
 Ces chèvres ont été exportées à plusieurs reprises en Europe et aux États-Unis, initialement pour les zoos ou les laboratoires de recherche. Plusieurs races découlent de ces imports, parmi elles l’américaine pygmée et la naine nigériane aux États-Unis, la pygmée au Royaume-Uni, la naine hollandaise ou chèvre naine néerlandaise aux Pays-Bas et la Tibetana en Italie. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vres_naines_d%27Afrique_de_l%27Ouest</t>
+          <t>Chèvres_naines_d'Afrique_de_l'Ouest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La chèvre naine d’Afrique de l’Ouest est acondroplaste, avec une taille de 30 à 50 cm. Les mâles adultes pèsent de 20 à 25 kg et les femelles de 18 à 22 kg. Les deux genres possèdent des cornes recourbées vers l’extérieur et vers l’arrière pour les mâles. Les mâles ont également une barbe et parfois une crinière. Ces chèvres ont un cou relativement long, une poitrine large et un dos droit. Leurs pattes sont courtes et le pis est petit mais bien fonctionnel. La plupart ont le poil court et des couleurs vairées, le chamoisé étant probablement la robe la plus courante mais le noir, le rouge le crème et le pie sont également rencontrés. 
 Il y a de nombreuses souches régionales et des lignées diverses au sein de ce groupe de chèvres naines d’Afrique de l’Ouest. Il inclut la naine du Cameroun au Cameroun, la Casamance au Sénégal, la naine de Côte d’Ivoire en Côte d’Ivoire, la Djougry ou Chèvre naine de l’Est en Mauritanie, la Ghan Forest au Ghana, la Kirdi au nord du Cameroun et au sud du Chad, la Kosi au Cameroun et la naine Nigériane au Nigeria. Au Burkina Faso et au Togo, la Fouta Djallon ou Djallonké inclut d’autres souches traditionnelles comme la Bath, la Kanem, la Kobbi, la Lac, la Massakori, la Mayo et la Mossi. 
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vres_naines_d%27Afrique_de_l%27Ouest</t>
+          <t>Chèvres_naines_d'Afrique_de_l'Ouest</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La chèvre naine d’Afrique de l’Ouest est importante dans l’économie des villages ruraux d’Afrique de l’Ouest. Les chèvres naines nigérianes d’Afrique de l’Ouest sont trypanotolérantes (elles résistent aux infections de Trypanosoma) et haemoncotolérantes (elles résistent aux infestations dues aux parasites gastro-intestinaux de type Haemonchus contortus beaucoup plus facilement que d’autres races de chèvres domestiques). 
 La chèvre naine d’Afrique de l’Ouest est capable de se reproduire à partir de 12 à 18 mois. Les naissances multiples sont très courantes, les jumeaux étant normaux et les triplés fréquents. Ces chèvres sont très souvent gardées en troupeaux par les familles qui consomment ou vendent le lait et la viande.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vres_naines_d%27Afrique_de_l%27Ouest</t>
+          <t>Chèvres_naines_d'Afrique_de_l'Ouest</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbara Rischkowsky, D. Pilling (eds.) (2007). List of breeds documented in the Global Databank for Animal Genetic Resources, annex to The State of the World's Animal Genetic Resources for Food and Agriculture. Rome: Food and Agriculture Organization of the United Nations.  (ISBN 9789251057629). Accessed January 2017.
 Valerie Porter, Lawrence Alderson, Stephen J.G. Hall, D. Phillip Sponenberg (2016). Mason's World Encyclopedia of Livestock Breeds and Breeding (sixth edition). Wallingford: CABI.  (ISBN 9781780647944).
